--- a/db.xlsx
+++ b/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>ExamLibItem</t>
   </si>
@@ -156,6 +156,94 @@
   </si>
   <si>
     <t>试卷题目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m2m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin.ModelAdmin:response_add
+linkback.html
+RelatedObjectLookups.js
+- dismissAddAnotherPopupForLinkObj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelatedObjectLookups.js
+- dismissAddAnotherPopupForLinkObj
+result_list
+- change_list_result.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +274,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -232,13 +333,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -542,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
@@ -806,13 +914,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="39.125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>ExamLibItem</t>
   </si>
@@ -246,12 +246,51 @@
 - change_list_result.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>get_context_data</t>
+  </si>
+  <si>
+    <t>get_form</t>
+  </si>
+  <si>
+    <t>get_form_class</t>
+  </si>
+  <si>
+    <t>get_form_kwargs</t>
+  </si>
+  <si>
+    <t>get_success_url</t>
+  </si>
+  <si>
+    <t>form_valid</t>
+  </si>
+  <si>
+    <t>form_invalid</t>
+  </si>
+  <si>
+    <t>as_view</t>
+  </si>
+  <si>
+    <t>dispatch</t>
+  </si>
+  <si>
+    <t>get_object</t>
+  </si>
+  <si>
+    <t>get_queryset</t>
+  </si>
+  <si>
+    <t>render_to_response</t>
+  </si>
+  <si>
+    <t>get_template_names</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +327,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +374,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -347,6 +407,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -359,6 +422,4016 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="1266825"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>FormMixinBase</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="1066800"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ContextMixin</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="2047875"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>FormMixin</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="857250"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>type</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="6000750"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UpdateView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="6010275"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DetailView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="6019800"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CreateView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="6029325"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DeleteView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="5257800"/>
+          <a:ext cx="2409825" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SingleObjectTemplateResponseMixin</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="4867275"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BaseUpdateView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="4867275"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BaseDetailView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="4857750"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BaseCreateView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="4857750"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BaseDeleteView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705475" y="2038350"/>
+          <a:ext cx="1704975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TemplateResponseMixin</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="3419475"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ModelFormMixin</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="2047875"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SingleObjectMixin</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="4343400"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DeletionMixin</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="3419475"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProcessFormView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="2047875"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>View</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1538288</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1538288</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1538288" y="5143500"/>
+          <a:ext cx="0" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1271588</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1538288</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接连接符 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1271588" y="2324100"/>
+          <a:ext cx="266700" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1471613</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1471613</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接箭头连接符 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3548063" y="5143500"/>
+          <a:ext cx="0" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1271588</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直接箭头连接符 95"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1271588" y="2324100"/>
+          <a:ext cx="876300" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>871538</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直接箭头连接符 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2147888" y="2324100"/>
+          <a:ext cx="800100" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="TextBox 101"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="3810000"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BaseDetailView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1042988</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直接箭头连接符 103"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7443788" y="4086225"/>
+          <a:ext cx="419100" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直接箭头连接符 105"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7862888" y="4619625"/>
+          <a:ext cx="0" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1471613</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>862013</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直接箭头连接符 115"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3548063" y="2324100"/>
+          <a:ext cx="1123950" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1538288</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>862013</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直接箭头连接符 117"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1538288" y="2324100"/>
+          <a:ext cx="3133725" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直接箭头连接符 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6548438" y="2314575"/>
+          <a:ext cx="9525" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1471613</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="直接箭头连接符 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3548063" y="2314575"/>
+          <a:ext cx="3009900" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直接箭头连接符 164"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7862888" y="5133975"/>
+          <a:ext cx="0" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1471613</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="直接箭头连接符 170"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2147888" y="3695700"/>
+          <a:ext cx="1400175" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直接箭头连接符 172"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2147888" y="3695700"/>
+          <a:ext cx="3581400" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1471613</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1471613</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="直接箭头连接符 174"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3548063" y="3695700"/>
+          <a:ext cx="0" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1471613</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="直接箭头连接符 176"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3548063" y="3695700"/>
+          <a:ext cx="2181225" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="直接箭头连接符 180"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5729288" y="5133975"/>
+          <a:ext cx="0" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="直接箭头连接符 185"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6548438" y="5534025"/>
+          <a:ext cx="1314450" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="直接箭头连接符 187"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5729288" y="5534025"/>
+          <a:ext cx="819150" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1471613</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直接箭头连接符 189"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3548063" y="5534025"/>
+          <a:ext cx="3000375" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1538288</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="直接箭头连接符 191"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1538288" y="5534025"/>
+          <a:ext cx="5010150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="TextBox 192"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9201150" y="6029325"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>FormView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="TextBox 193"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="4867275"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BaseFormView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="TextBox 200"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191875" y="6010275"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ListView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="TextBox 201"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10791825" y="5248275"/>
+          <a:ext cx="2486025" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MultipleObjectTemplateResponseMixin</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="TextBox 202"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191875" y="4867275"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BaseListView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="TextBox 203"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134725" y="2047875"/>
+          <a:ext cx="1438275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MultipleObjectMixin</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="TextBox 204"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="2047875"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>View</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="直接箭头连接符 206"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="204" idx="2"/>
+          <a:endCxn id="203" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11844338" y="2324100"/>
+          <a:ext cx="9525" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="直接箭头连接符 208"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="205" idx="2"/>
+          <a:endCxn id="203" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11844338" y="2324100"/>
+          <a:ext cx="1457325" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="直接箭头连接符 210"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="202" idx="2"/>
+          <a:endCxn id="201" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11844338" y="5524500"/>
+          <a:ext cx="190500" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="直接箭头连接符 212"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="203" idx="2"/>
+          <a:endCxn id="201" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11844338" y="5143500"/>
+          <a:ext cx="0" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="TextBox 213"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401175" y="2047875"/>
+          <a:ext cx="1647825" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TemplateResponseMixin</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="直接箭头连接符 215"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+          <a:endCxn id="202" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10225088" y="2324100"/>
+          <a:ext cx="566737" cy="3062288"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="直接箭头连接符 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+          <a:endCxn id="193" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9853613" y="2324100"/>
+          <a:ext cx="371475" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="TextBox 222"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10515600" y="3438525"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProcessFormView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="225" name="直接箭头连接符 224"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="223" idx="2"/>
+          <a:endCxn id="194" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9872663" y="3714750"/>
+          <a:ext cx="1295400" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="227" name="直接箭头连接符 226"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="194" idx="2"/>
+          <a:endCxn id="193" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9853613" y="5143500"/>
+          <a:ext cx="19050" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="直接箭头连接符 230"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+          <a:endCxn id="223" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10225088" y="2324100"/>
+          <a:ext cx="942975" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="233" name="直接箭头连接符 232"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="204" idx="2"/>
+          <a:endCxn id="223" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11168063" y="2324100"/>
+          <a:ext cx="685800" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="TextBox 233"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13458825" y="6010275"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>TemplateView</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="直接箭头连接符 235"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="205" idx="2"/>
+          <a:endCxn id="234" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13301663" y="2324100"/>
+          <a:ext cx="809625" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="直接箭头连接符 237"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+          <a:endCxn id="234" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10225088" y="2324100"/>
+          <a:ext cx="3886200" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="239" name="TextBox 238"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13944600" y="4448175"/>
+          <a:ext cx="1304925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ContextMixin</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="直接箭头连接符 240"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="239" idx="2"/>
+          <a:endCxn id="234" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14111288" y="4724400"/>
+          <a:ext cx="485775" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1271588</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="245" name="直接箭头连接符 244"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1271588" y="1343025"/>
+          <a:ext cx="6581775" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="247" name="直接箭头连接符 246"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="204" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7853363" y="1343025"/>
+          <a:ext cx="4000500" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>871538</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="直接箭头连接符 248"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2947988" y="1343025"/>
+          <a:ext cx="4905375" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>871538</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>871538</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="251" name="直接箭头连接符 250"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2947988" y="1543050"/>
+          <a:ext cx="0" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,7 +4724,7 @@
   <dimension ref="F6:K43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -901,14 +4974,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A5:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.25" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -916,7 +5062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
